--- a/config_files/Horarios/Medibiofarma/Rodolfo Rodríguez.xlsx
+++ b/config_files/Horarios/Medibiofarma/Rodolfo Rodríguez.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -323,7 +323,8 @@
     <t>Medibiofarma</t>
   </si>
   <si>
-    <t>B66918053</t>
+    <t xml:space="preserve">B66918053
+</t>
   </si>
   <si>
     <t>31/1124914-33</t>
@@ -9416,21 +9417,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9440,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
